--- a/Lab_1/Python_vacs.xlsx
+++ b/Lab_1/Python_vacs.xlsx
@@ -446,122 +446,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Разработчик Python (Стажер)</t>
+          <t>Ведущий инженер-программист / Бэкенд-разработчик на Python</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/77882179?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/78867779?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>от 90 000 руб.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Центр финансовых технологий</t>
+          <t>АО Омский НИИ Приборостроения</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ГИС программист (разработка/аналитика/системное администрирование)</t>
+          <t>Разработчик ИСУ (SQL/Python)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/77446643?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/78810754?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>90 000 – 180 000 руб.</t>
+          <t>от 66 000 руб.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ООО ЭнимаКонсалт</t>
+          <t>Сбер для экспертов</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Инженер-программист / Бэкенд-разработчик на Python</t>
+          <t>Data-инженер</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/70975727?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/72234398?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>от 50 000 руб.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>АО Омский НИИ Приборостроения</t>
+          <t>Тинькофф</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Учитель программирования Алгоритмика</t>
+          <t>Middle Python Developer (Front), в Сочи</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/77931741?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/79177584?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7 600 – 25 000 руб.</t>
+          <t>до 150 000 руб.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ООО Монитор</t>
+          <t>АО НИИ МАСШТАБ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Backend Developer</t>
+          <t>Программист Python</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/77672401?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/78069075?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>80 000 – 150 000 руб.</t>
+          <t>105 000 – 215 000 руб.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Surf IT</t>
+          <t>Тензор</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Data-инженер</t>
+          <t>Junior/Middle QA automation engineer (Python)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/72234398?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/78734499?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -571,19 +571,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Тинькофф</t>
+          <t>IBS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Senior/Lead Python-разработчик</t>
+          <t>Data Scientist (Middle+/Senior)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/78159560?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/79079449?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -593,41 +593,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Контур</t>
+          <t>Центр финансовых технологий</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Senior Python-разработчик в Контур.Тревел</t>
+          <t>Senior Python Developer, релокация в Сочи</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/77707064?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/78743032?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>до 180 000 руб.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Контур</t>
+          <t>АО НИИ МАСШТАБ</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Разработчик SQL (Hadoop\PySpark)</t>
+          <t>Senior Python-разработчик</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/78329110?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/78159560?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Иннотех, Группа компаний</t>
+          <t>Контур</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Технический писатель со знанием IT</t>
+          <t>Инженер систем мониторинга Zabbix / Администратор Linux</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/77768454?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/79090679?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -659,19 +659,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Яндекс Крауд</t>
+          <t>СИГМА</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Team Lead</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/78086813?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/79127190?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -681,19 +681,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ТОО Pulsar Systems</t>
+          <t>Контур</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Технический писатель со знанием IT</t>
+          <t>ML-инженер</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/77761064?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/77923153?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -703,161 +703,161 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Яндекс Крауд</t>
+          <t>Тинькофф</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Специалист службы поддержки с техническими знаниями (TOOLS)</t>
+          <t>Инженер-программист</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/77853453?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/79195182?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15 000 – 39 000 руб.</t>
+          <t>от 50 000 руб.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Яндекс Крауд</t>
+          <t>АО НПП Эталон</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BI аналитик</t>
+          <t>Senior DevOps Kubernetes (удаленно)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/78189873?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/78909434?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>от 180 000 руб.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AppScience</t>
+          <t>OKKAM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ночной специалист службы поддержки с техническими знаниями (Браузер)</t>
+          <t>Site Reliability Engineer (SRE)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/77769044?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/76378572?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18 000 – 45 000 руб.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Яндекс Крауд</t>
+          <t>Тинькофф</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Преподаватель/Доцент кафедры информатики (в г. Барнаул)</t>
+          <t>Инженер-программист 1 категории</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/78351053?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/69970105?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90 000 – 150 000 руб.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ФГБОУ ВО Алтайский государственный университет</t>
+          <t>АО НПО «Радиозавод им. А.С. Попова»</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Специалист службы поддержки с техническими знаниями (Волкер)</t>
+          <t>Сетевой инженер</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/77489041?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/70977411?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15 000 – 39 000 руб.</t>
+          <t>от 50 000 руб.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Яндекс Крауд</t>
+          <t>АО Омский НИИ Приборостроения</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Маркетолог-аналитик</t>
+          <t>Ведущий инженер-программист</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/72668796?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/69962567?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100 000 – 170 000 руб.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ООО Енисей-сервис</t>
+          <t>АО НПО «Радиозавод им. А.С. Попова»</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Senior DevOps Engineer</t>
+          <t>Маркетолог-аналитик</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://omsk.hh.ru/vacancy/77114178?from=vacancy_search_list&amp;query=Python </t>
+          <t xml:space="preserve">https://omsk.hh.ru/vacancy/78649801?from=vacancy_search_list&amp;query=Python </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>до 180 000 руб.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>АО НИИ МАСШТАБ</t>
+          <t>ООО Интернет РЕВОЛЮЦИЯ</t>
         </is>
       </c>
     </row>
